--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ООП\Telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5EEE3-F7EF-4567-A892-77E34730B842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE89D61-735E-4412-9CB1-83992877D4C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>понятие</t>
   </si>
@@ -33,10 +33,19 @@
     <t>определение</t>
   </si>
   <si>
-    <t>ф</t>
+    <t>Множество</t>
   </si>
   <si>
-    <t>ы</t>
+    <t xml:space="preserve">совокупность объектов любой природы,
+которые объединены в одну группу (систему, совокупность) по тем или иным
+признакам (множество городов, множество положительных чисел, множество
+студентов, множество действительных чисел и т.д.). </t>
+  </si>
+  <si>
+    <t>Суждение</t>
+  </si>
+  <si>
+    <t>утверждение, которое может быть как истинным, так и ложным.</t>
   </si>
 </sst>
 </file>
@@ -72,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,13 +366,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -370,15 +386,253 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8E17B44631B73438BB40119EF729830" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5957187a72594779458b2a22264ce01">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c2b86172-4d1f-4427-93d4-858af4c967bb" xmlns:ns4="3a9b9c10-5b2c-4855-95c4-89ec9a55b559" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1a5c8b8c336e98a3dae3ae31f566ecb" ns3:_="" ns4:_="">
+    <xsd:import namespace="c2b86172-4d1f-4427-93d4-858af4c967bb"/>
+    <xsd:import namespace="3a9b9c10-5b2c-4855-95c4-89ec9a55b559"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c2b86172-4d1f-4427-93d4-858af4c967bb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a9b9c10-5b2c-4855-95c4-89ec9a55b559" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AC4A71-248A-4763-9CAE-033659375308}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81ABA11E-58E7-4A8A-9535-9DCA447D03B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c2b86172-4d1f-4427-93d4-858af4c967bb"/>
+    <ds:schemaRef ds:uri="3a9b9c10-5b2c-4855-95c4-89ec9a55b559"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617195A8-56D5-44E9-B444-6E1ADCFA2F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3a9b9c10-5b2c-4855-95c4-89ec9a55b559"/>
+    <ds:schemaRef ds:uri="c2b86172-4d1f-4427-93d4-858af4c967bb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>